--- a/data/Zimbabwe BoD.xlsx
+++ b/data/Zimbabwe BoD.xlsx
@@ -1,24 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28702"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Gerard/Dropbox/Optima UHC/IHME_GBD/Zimbabwe/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1040" yWindow="1680" windowWidth="24560" windowHeight="14320" tabRatio="500"/>
+    <workbookView xWindow="1035" yWindow="1680" windowWidth="24555" windowHeight="14325" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -1053,9 +1045,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -1073,6 +1064,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -1101,10 +1093,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -1164,7 +1157,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -1199,7 +1192,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -1376,7 +1369,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1386,37 +1379,37 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F335"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" topLeftCell="A162" workbookViewId="0">
+      <selection activeCell="C179" sqref="C179"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="64.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="64.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
         <v>334</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>335</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="4" t="s">
         <v>336</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="4" t="s">
         <v>337</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="4" t="s">
         <v>338</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="4" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1436,7 +1429,7 @@
         <v>1609210.4529299999</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1456,7 +1449,7 @@
         <v>139.778406322</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1476,7 +1469,7 @@
         <v>2229058.9712999999</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1496,7 +1489,7 @@
         <v>4396.9062455900003</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1516,7 +1509,7 @@
         <v>1838713.09381</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1536,7 +1529,7 @@
         <v>385071.793358</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1556,7 +1549,7 @@
         <v>877.17788671300002</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1576,7 +1569,7 @@
         <v>266.63913131200002</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1596,7 +1589,7 @@
         <v>160.43262555999999</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1616,7 +1609,7 @@
         <v>5781.6889917199996</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1636,7 +1629,7 @@
         <v>4.78581794722</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1656,7 +1649,7 @@
         <v>1302010.5885399999</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1676,7 +1669,7 @@
         <v>3051.7734694199999</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1696,7 +1689,7 @@
         <v>218103.822839</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1716,7 +1709,7 @@
         <v>523.233128491</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1736,7 +1729,7 @@
         <v>15445712.787</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1756,7 +1749,7 @@
         <v>26579.882932</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1776,7 +1769,7 @@
         <v>23203.273950300001</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1796,7 +1789,7 @@
         <v>640.10098449199995</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1816,7 +1809,7 @@
         <v>91507.952434699997</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1836,7 +1829,7 @@
         <v>3801.3630770599998</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1856,7 +1849,7 @@
         <v>475131.83689099998</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1876,7 +1869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1896,7 +1889,7 @@
         <v>1970.2041059600001</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1916,7 +1909,7 @@
         <v>124.5381239</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -1936,7 +1929,7 @@
         <v>866506.39843399997</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -1956,7 +1949,7 @@
         <v>96156.634504200003</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -1976,7 +1969,7 @@
         <v>883522.87385600002</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -1996,7 +1989,7 @@
         <v>29072.3965092</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -2016,7 +2009,7 @@
         <v>212665.779297</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
@@ -2036,7 +2029,7 @@
         <v>39811.540295999999</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
@@ -2056,7 +2049,7 @@
         <v>134910.01009299999</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
@@ -2076,7 +2069,7 @@
         <v>104984.319435</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
@@ -2096,7 +2089,7 @@
         <v>81924.153395000001</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
@@ -2116,7 +2109,7 @@
         <v>1421.4779766199999</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
@@ -2136,7 +2129,7 @@
         <v>515.07591677100004</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
@@ -2156,7 +2149,7 @@
         <v>4350.5454288600004</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
@@ -2176,7 +2169,7 @@
         <v>9673.5470282700007</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
@@ -2196,7 +2189,7 @@
         <v>34011.530496300002</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
@@ -2216,7 +2209,7 @@
         <v>6860.2466609700004</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
@@ -2236,7 +2229,7 @@
         <v>598956.22886699997</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
@@ -2256,7 +2249,7 @@
         <v>1300652.31767</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
@@ -2276,7 +2269,7 @@
         <v>4153382.6515600001</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
@@ -2296,7 +2289,7 @@
         <v>34478.384897999997</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
@@ -2316,7 +2309,7 @@
         <v>6039.5288316300002</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
@@ -2336,7 +2329,7 @@
         <v>7311.57432849</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
@@ -2356,7 +2349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>48</v>
       </c>
@@ -2376,7 +2369,7 @@
         <v>201781.070966</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>49</v>
       </c>
@@ -2396,7 +2389,7 @@
         <v>668656.54559300002</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>50</v>
       </c>
@@ -2416,7 +2409,7 @@
         <v>203850.79294300001</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>51</v>
       </c>
@@ -2436,7 +2429,7 @@
         <v>137953.61521399999</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>52</v>
       </c>
@@ -2456,7 +2449,7 @@
         <v>139851.60645299999</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>53</v>
       </c>
@@ -2476,7 +2469,7 @@
         <v>187000.530983</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>54</v>
       </c>
@@ -2496,7 +2489,7 @@
         <v>107.178846818</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>55</v>
       </c>
@@ -2516,7 +2509,7 @@
         <v>93.469430335400006</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>56</v>
       </c>
@@ -2536,7 +2529,7 @@
         <v>192588.25821100001</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>57</v>
       </c>
@@ -2556,7 +2549,7 @@
         <v>1071690.5942299999</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>58</v>
       </c>
@@ -2576,7 +2569,7 @@
         <v>20167.5484005</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>59</v>
       </c>
@@ -2596,7 +2589,7 @@
         <v>4235.3109633599997</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>60</v>
       </c>
@@ -2616,7 +2609,7 @@
         <v>4996.0104678400003</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>61</v>
       </c>
@@ -2636,7 +2629,7 @@
         <v>2261.6609713900002</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>62</v>
       </c>
@@ -2656,7 +2649,7 @@
         <v>8674.5659978700005</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>63</v>
       </c>
@@ -2676,7 +2669,7 @@
         <v>109.950315929</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>64</v>
       </c>
@@ -2696,7 +2689,7 @@
         <v>2432.6783650399998</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>65</v>
       </c>
@@ -2716,7 +2709,7 @@
         <v>1706.8401838899999</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>66</v>
       </c>
@@ -2736,7 +2729,7 @@
         <v>13031368.2213</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>67</v>
       </c>
@@ -2756,7 +2749,7 @@
         <v>159760.53947700001</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>68</v>
       </c>
@@ -2776,7 +2769,7 @@
         <v>2668.63428036</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>69</v>
       </c>
@@ -2796,7 +2789,7 @@
         <v>151864.401568</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>70</v>
       </c>
@@ -2816,7 +2809,7 @@
         <v>30773.489502</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>71</v>
       </c>
@@ -2836,7 +2829,7 @@
         <v>20818.296729900001</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>72</v>
       </c>
@@ -2856,7 +2849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>73</v>
       </c>
@@ -2876,7 +2869,7 @@
         <v>26632.221047700001</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>74</v>
       </c>
@@ -2896,7 +2889,7 @@
         <v>5240.0386354299999</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>75</v>
       </c>
@@ -2916,7 +2909,7 @@
         <v>26898.4571454</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>76</v>
       </c>
@@ -2936,7 +2929,7 @@
         <v>1742.2473244400001</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>77</v>
       </c>
@@ -2956,7 +2949,7 @@
         <v>3681.9493593399998</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>78</v>
       </c>
@@ -2976,7 +2969,7 @@
         <v>381216.329073</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>79</v>
       </c>
@@ -2996,7 +2989,7 @@
         <v>1045786.69731</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>80</v>
       </c>
@@ -3016,7 +3009,7 @@
         <v>420130.343077</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>81</v>
       </c>
@@ -3036,7 +3029,7 @@
         <v>6141851.6896700002</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>82</v>
       </c>
@@ -3056,7 +3049,7 @@
         <v>1116634.2453300001</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>83</v>
       </c>
@@ -3076,7 +3069,7 @@
         <v>202568.136478</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>84</v>
       </c>
@@ -3096,7 +3089,7 @@
         <v>2611725.3285500002</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>85</v>
       </c>
@@ -3116,7 +3109,7 @@
         <v>19000.835521000001</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>86</v>
       </c>
@@ -3136,7 +3129,7 @@
         <v>229179.61074599999</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>87</v>
       </c>
@@ -3156,7 +3149,7 @@
         <v>0.26588622085000002</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>88</v>
       </c>
@@ -3176,7 +3169,7 @@
         <v>3766.6706502400002</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>89</v>
       </c>
@@ -3196,7 +3189,7 @@
         <v>4612.2729267900004</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>90</v>
       </c>
@@ -3216,7 +3209,7 @@
         <v>96061.890026099994</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>91</v>
       </c>
@@ -3236,7 +3229,7 @@
         <v>32290.450634299999</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>92</v>
       </c>
@@ -3256,7 +3249,7 @@
         <v>153204.33304999999</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>93</v>
       </c>
@@ -3276,7 +3269,7 @@
         <v>14014.8493502</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>94</v>
       </c>
@@ -3296,7 +3289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>95</v>
       </c>
@@ -3316,7 +3309,7 @@
         <v>455883.70548800001</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>96</v>
       </c>
@@ -3336,7 +3329,7 @@
         <v>35300.3014855</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>97</v>
       </c>
@@ -3356,7 +3349,7 @@
         <v>292.371590287</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>98</v>
       </c>
@@ -3376,7 +3369,7 @@
         <v>166669.12957700001</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>99</v>
       </c>
@@ -3396,7 +3389,7 @@
         <v>3467.4422814499999</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>100</v>
       </c>
@@ -3416,7 +3409,7 @@
         <v>104370.046705</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>101</v>
       </c>
@@ -3436,7 +3429,7 @@
         <v>49361.763946300001</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>102</v>
       </c>
@@ -3456,7 +3449,7 @@
         <v>854.58523511500005</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>103</v>
       </c>
@@ -3476,7 +3469,7 @@
         <v>710.13820090199999</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>104</v>
       </c>
@@ -3496,7 +3489,7 @@
         <v>915.96731212099996</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>105</v>
       </c>
@@ -3516,7 +3509,7 @@
         <v>216364.27402099999</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>106</v>
       </c>
@@ -3536,7 +3529,7 @@
         <v>5.9999309905900002</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>107</v>
       </c>
@@ -3556,7 +3549,7 @@
         <v>333392.258592</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>108</v>
       </c>
@@ -3576,7 +3569,7 @@
         <v>9844.4330307</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>109</v>
       </c>
@@ -3596,7 +3589,7 @@
         <v>180117.77630999999</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>110</v>
       </c>
@@ -3616,7 +3609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>111</v>
       </c>
@@ -3636,7 +3629,7 @@
         <v>4294.7397933900002</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>112</v>
       </c>
@@ -3656,7 +3649,7 @@
         <v>109399.983056</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>113</v>
       </c>
@@ -3676,7 +3669,7 @@
         <v>5228.78729441</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>114</v>
       </c>
@@ -3696,7 +3689,7 @@
         <v>51972.168981900002</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>115</v>
       </c>
@@ -3716,7 +3709,7 @@
         <v>1965077.31651</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>116</v>
       </c>
@@ -3736,7 +3729,7 @@
         <v>1192731.3602199999</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>117</v>
       </c>
@@ -3756,7 +3749,7 @@
         <v>2574730.2216699999</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>118</v>
       </c>
@@ -3776,7 +3769,7 @@
         <v>10580.9143116</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>119</v>
       </c>
@@ -3796,7 +3789,7 @@
         <v>48.357650656499999</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>120</v>
       </c>
@@ -3816,7 +3809,7 @@
         <v>76089.609692800004</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>121</v>
       </c>
@@ -3836,7 +3829,7 @@
         <v>2776098.3940900001</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>122</v>
       </c>
@@ -3856,7 +3849,7 @@
         <v>629461.32120400004</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>123</v>
       </c>
@@ -3876,7 +3869,7 @@
         <v>5639.7781425200001</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>124</v>
       </c>
@@ -3896,7 +3889,7 @@
         <v>266718.21564200002</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>125</v>
       </c>
@@ -3916,7 +3909,7 @@
         <v>30346.365551399998</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>126</v>
       </c>
@@ -3936,7 +3929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>127</v>
       </c>
@@ -3956,7 +3949,7 @@
         <v>1596156.6844500001</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>128</v>
       </c>
@@ -3976,7 +3969,7 @@
         <v>5502.8007909500002</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>129</v>
       </c>
@@ -3996,7 +3989,7 @@
         <v>4440030.8397399997</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>130</v>
       </c>
@@ -4016,7 +4009,7 @@
         <v>5330.7044378099999</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>131</v>
       </c>
@@ -4036,7 +4029,7 @@
         <v>32363.3216436</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>132</v>
       </c>
@@ -4056,7 +4049,7 @@
         <v>1447010.4773800001</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>133</v>
       </c>
@@ -4076,7 +4069,7 @@
         <v>6.9187961336099999</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>134</v>
       </c>
@@ -4096,7 +4089,7 @@
         <v>1072.3895096799999</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>135</v>
       </c>
@@ -4116,7 +4109,7 @@
         <v>3783157.05957</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>136</v>
       </c>
@@ -4136,7 +4129,7 @@
         <v>1447010.4773800001</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>137</v>
       </c>
@@ -4156,7 +4149,7 @@
         <v>138.36938623699999</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>138</v>
       </c>
@@ -4176,7 +4169,7 @@
         <v>2986814.1930999998</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>139</v>
       </c>
@@ -4196,7 +4189,7 @@
         <v>4299.5414026799999</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>140</v>
       </c>
@@ -4216,7 +4209,7 @@
         <v>395884.50699700002</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>141</v>
       </c>
@@ -4236,7 +4229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>142</v>
       </c>
@@ -4256,7 +4249,7 @@
         <v>878.20414250099998</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>143</v>
       </c>
@@ -4276,7 +4269,7 @@
         <v>112807.892217</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>144</v>
       </c>
@@ -4296,7 +4289,7 @@
         <v>2129554.2097200002</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>145</v>
       </c>
@@ -4316,7 +4309,7 @@
         <v>673574.20304599998</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>146</v>
       </c>
@@ -4336,7 +4329,7 @@
         <v>1538.0641624699999</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>147</v>
       </c>
@@ -4356,7 +4349,7 @@
         <v>34.970400695899997</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>148</v>
       </c>
@@ -4376,7 +4369,7 @@
         <v>6594717.7104099998</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>149</v>
       </c>
@@ -4396,7 +4389,7 @@
         <v>8341.2230947700009</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>150</v>
       </c>
@@ -4416,7 +4409,7 @@
         <v>403434.09291200002</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>151</v>
       </c>
@@ -4436,7 +4429,7 @@
         <v>146658.27681700001</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>152</v>
       </c>
@@ -4456,7 +4449,7 @@
         <v>36746.352967500003</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>153</v>
       </c>
@@ -4476,7 +4469,7 @@
         <v>680.81242921800003</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>154</v>
       </c>
@@ -4496,7 +4489,7 @@
         <v>10864.2679548</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>155</v>
       </c>
@@ -4516,7 +4509,7 @@
         <v>355.63602882999999</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>156</v>
       </c>
@@ -4532,11 +4525,11 @@
       <c r="E157" s="1">
         <v>31.177538285899999</v>
       </c>
-      <c r="F157">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F157" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>157</v>
       </c>
@@ -4556,7 +4549,7 @@
         <v>2653381.9662700002</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>158</v>
       </c>
@@ -4576,7 +4569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>159</v>
       </c>
@@ -4596,7 +4589,7 @@
         <v>530.72113221699999</v>
       </c>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>160</v>
       </c>
@@ -4616,7 +4609,7 @@
         <v>959.78798001799998</v>
       </c>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>161</v>
       </c>
@@ -4636,7 +4629,7 @@
         <v>545.75140840699999</v>
       </c>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>162</v>
       </c>
@@ -4656,7 +4649,7 @@
         <v>467.041332635</v>
       </c>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>163</v>
       </c>
@@ -4676,7 +4669,7 @@
         <v>131.48507651700001</v>
       </c>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>164</v>
       </c>
@@ -4696,7 +4689,7 @@
         <v>456.63322634100001</v>
       </c>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>165</v>
       </c>
@@ -4716,7 +4709,7 @@
         <v>144.261975385</v>
       </c>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>166</v>
       </c>
@@ -4736,7 +4729,7 @@
         <v>193.564400495</v>
       </c>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>167</v>
       </c>
@@ -4756,7 +4749,7 @@
         <v>955521.36230000004</v>
       </c>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>168</v>
       </c>
@@ -4776,7 +4769,7 @@
         <v>734858.997065</v>
       </c>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>169</v>
       </c>
@@ -4796,7 +4789,7 @@
         <v>23363.5904672</v>
       </c>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>170</v>
       </c>
@@ -4816,7 +4809,7 @@
         <v>1501.02573334</v>
       </c>
     </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>171</v>
       </c>
@@ -4836,7 +4829,7 @@
         <v>233812.04826499999</v>
       </c>
     </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>172</v>
       </c>
@@ -4856,7 +4849,7 @@
         <v>352512.60253999999</v>
       </c>
     </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>173</v>
       </c>
@@ -4876,7 +4869,7 @@
         <v>32373.106257300002</v>
       </c>
     </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>174</v>
       </c>
@@ -4896,7 +4889,7 @@
         <v>427.40434205899999</v>
       </c>
     </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>175</v>
       </c>
@@ -4916,7 +4909,7 @@
         <v>1172.38358911</v>
       </c>
     </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>176</v>
       </c>
@@ -4932,9 +4925,11 @@
       <c r="E177" s="1">
         <v>106.955655003</v>
       </c>
-      <c r="F177" s="1"/>
-    </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F177" s="1">
+        <v>5736.6937161100004</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>177</v>
       </c>
@@ -4954,7 +4949,7 @@
         <v>41000.608558300002</v>
       </c>
     </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>178</v>
       </c>
@@ -4974,7 +4969,7 @@
         <v>6656.1313066900002</v>
       </c>
     </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>179</v>
       </c>
@@ -4994,7 +4989,7 @@
         <v>23545.751117100001</v>
       </c>
     </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>180</v>
       </c>
@@ -5014,7 +5009,7 @@
         <v>5226.9748462500002</v>
       </c>
     </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>181</v>
       </c>
@@ -5034,7 +5029,7 @@
         <v>5413.5450838999996</v>
       </c>
     </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>182</v>
       </c>
@@ -5054,7 +5049,7 @@
         <v>215.14418597100001</v>
       </c>
     </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>183</v>
       </c>
@@ -5074,7 +5069,7 @@
         <v>49593.493534300003</v>
       </c>
     </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>184</v>
       </c>
@@ -5094,7 +5089,7 @@
         <v>4208.4962505200001</v>
       </c>
     </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>185</v>
       </c>
@@ -5114,7 +5109,7 @@
         <v>2210222.6933300002</v>
       </c>
     </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>186</v>
       </c>
@@ -5134,7 +5129,7 @@
         <v>22.334280898799999</v>
       </c>
     </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>187</v>
       </c>
@@ -5154,7 +5149,7 @@
         <v>1665151.91328</v>
       </c>
     </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>188</v>
       </c>
@@ -5174,7 +5169,7 @@
         <v>167.866301763</v>
       </c>
     </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>189</v>
       </c>
@@ -5194,7 +5189,7 @@
         <v>55530.049197799999</v>
       </c>
     </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>190</v>
       </c>
@@ -5214,7 +5209,7 @@
         <v>16644.724436799999</v>
       </c>
     </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>191</v>
       </c>
@@ -5234,7 +5229,7 @@
         <v>930.00889486999995</v>
       </c>
     </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>192</v>
       </c>
@@ -5254,7 +5249,7 @@
         <v>220.44034127800001</v>
       </c>
     </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>193</v>
       </c>
@@ -5274,7 +5269,7 @@
         <v>786.55122728000003</v>
       </c>
     </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>194</v>
       </c>
@@ -5294,7 +5289,7 @@
         <v>1448021.10809</v>
       </c>
     </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>195</v>
       </c>
@@ -5314,7 +5309,7 @@
         <v>2907.26695427</v>
       </c>
     </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>196</v>
       </c>
@@ -5334,7 +5329,7 @@
         <v>116.33832526899999</v>
       </c>
     </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>197</v>
       </c>
@@ -5354,7 +5349,7 @@
         <v>268457.82587100001</v>
       </c>
     </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>198</v>
       </c>
@@ -5374,7 +5369,7 @@
         <v>7424612.7690199995</v>
       </c>
     </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>199</v>
       </c>
@@ -5394,7 +5389,7 @@
         <v>227895.59700199999</v>
       </c>
     </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>200</v>
       </c>
@@ -5414,7 +5409,7 @@
         <v>23753.402295100001</v>
       </c>
     </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>201</v>
       </c>
@@ -5434,7 +5429,7 @@
         <v>185406.66152200001</v>
       </c>
     </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>202</v>
       </c>
@@ -5454,7 +5449,7 @@
         <v>30749.678861100001</v>
       </c>
     </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>203</v>
       </c>
@@ -5474,7 +5469,7 @@
         <v>24053.896614900001</v>
       </c>
     </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>204</v>
       </c>
@@ -5494,7 +5489,7 @@
         <v>18560.0715939</v>
       </c>
     </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>205</v>
       </c>
@@ -5514,7 +5509,7 @@
         <v>4719159.2709799996</v>
       </c>
     </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>206</v>
       </c>
@@ -5534,7 +5529,7 @@
         <v>13756685.2106</v>
       </c>
     </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>207</v>
       </c>
@@ -5554,7 +5549,7 @@
         <v>1433.2401454200001</v>
       </c>
     </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>208</v>
       </c>
@@ -5574,7 +5569,7 @@
         <v>57.889901153499999</v>
       </c>
     </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>209</v>
       </c>
@@ -5594,7 +5589,7 @@
         <v>18.171867765599998</v>
       </c>
     </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>210</v>
       </c>
@@ -5614,7 +5609,7 @@
         <v>56.8319526708</v>
       </c>
     </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>211</v>
       </c>
@@ -5634,7 +5629,7 @@
         <v>64440.059563399998</v>
       </c>
     </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>212</v>
       </c>
@@ -5654,7 +5649,7 @@
         <v>4270625.3892400004</v>
       </c>
     </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>213</v>
       </c>
@@ -5674,7 +5669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>214</v>
       </c>
@@ -5694,7 +5689,7 @@
         <v>56757.402290600003</v>
       </c>
     </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>215</v>
       </c>
@@ -5714,7 +5709,7 @@
         <v>6084654.4012500001</v>
       </c>
     </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>216</v>
       </c>
@@ -5734,7 +5729,7 @@
         <v>4724.1840081800001</v>
       </c>
     </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>217</v>
       </c>
@@ -5754,7 +5749,7 @@
         <v>228384.386463</v>
       </c>
     </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>218</v>
       </c>
@@ -5774,7 +5769,7 @@
         <v>4837.5918692200003</v>
       </c>
     </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>219</v>
       </c>
@@ -5794,7 +5789,7 @@
         <v>137701.148628</v>
       </c>
     </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>220</v>
       </c>
@@ -5814,7 +5809,7 @@
         <v>3321.3475603799998</v>
       </c>
     </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>221</v>
       </c>
@@ -5830,11 +5825,11 @@
       <c r="E222" s="1">
         <v>103.6691608</v>
       </c>
-      <c r="F222">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F222" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>222</v>
       </c>
@@ -5854,7 +5849,7 @@
         <v>5500822.2928299997</v>
       </c>
     </row>
-    <row r="224" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>223</v>
       </c>
@@ -5874,7 +5869,7 @@
         <v>54280.250027100003</v>
       </c>
     </row>
-    <row r="225" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>224</v>
       </c>
@@ -5890,11 +5885,11 @@
       <c r="E225" s="1">
         <v>290.72478537500001</v>
       </c>
-      <c r="F225">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F225" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>225</v>
       </c>
@@ -5914,7 +5909,7 @@
         <v>4661.33954395</v>
       </c>
     </row>
-    <row r="227" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>226</v>
       </c>
@@ -5934,7 +5929,7 @@
         <v>191682.64238199999</v>
       </c>
     </row>
-    <row r="228" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A228">
         <v>227</v>
       </c>
@@ -5954,7 +5949,7 @@
         <v>236009.86015200001</v>
       </c>
     </row>
-    <row r="229" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A229">
         <v>228</v>
       </c>
@@ -5974,7 +5969,7 @@
         <v>105555.78242</v>
       </c>
     </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A230">
         <v>229</v>
       </c>
@@ -5994,7 +5989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A231">
         <v>230</v>
       </c>
@@ -6014,7 +6009,7 @@
         <v>332.06794599300002</v>
       </c>
     </row>
-    <row r="232" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A232">
         <v>231</v>
       </c>
@@ -6034,7 +6029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A233">
         <v>232</v>
       </c>
@@ -6054,7 +6049,7 @@
         <v>21903.844340600001</v>
       </c>
     </row>
-    <row r="234" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A234">
         <v>233</v>
       </c>
@@ -6074,7 +6069,7 @@
         <v>219096.95317699999</v>
       </c>
     </row>
-    <row r="235" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A235">
         <v>234</v>
       </c>
@@ -6094,7 +6089,7 @@
         <v>344879.22393400001</v>
       </c>
     </row>
-    <row r="236" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A236">
         <v>235</v>
       </c>
@@ -6114,7 +6109,7 @@
         <v>153100.23590199999</v>
       </c>
     </row>
-    <row r="237" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A237">
         <v>236</v>
       </c>
@@ -6134,7 +6129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A238">
         <v>237</v>
       </c>
@@ -6154,7 +6149,7 @@
         <v>1459.11362394</v>
       </c>
     </row>
-    <row r="239" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A239">
         <v>238</v>
       </c>
@@ -6174,7 +6169,7 @@
         <v>39.183026017300001</v>
       </c>
     </row>
-    <row r="240" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A240">
         <v>239</v>
       </c>
@@ -6194,7 +6189,7 @@
         <v>10389073.819499999</v>
       </c>
     </row>
-    <row r="241" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A241">
         <v>240</v>
       </c>
@@ -6214,7 +6209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A242">
         <v>241</v>
       </c>
@@ -6234,7 +6229,7 @@
         <v>239655.02930900001</v>
       </c>
     </row>
-    <row r="243" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A243">
         <v>242</v>
       </c>
@@ -6254,7 +6249,7 @@
         <v>65.121730259399996</v>
       </c>
     </row>
-    <row r="244" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A244">
         <v>243</v>
       </c>
@@ -6274,7 +6269,7 @@
         <v>100.16444243700001</v>
       </c>
     </row>
-    <row r="245" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A245">
         <v>244</v>
       </c>
@@ -6294,7 +6289,7 @@
         <v>16708.880824</v>
       </c>
     </row>
-    <row r="246" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A246">
         <v>245</v>
       </c>
@@ -6314,7 +6309,7 @@
         <v>276090.28286400001</v>
       </c>
     </row>
-    <row r="247" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A247">
         <v>246</v>
       </c>
@@ -6334,7 +6329,7 @@
         <v>114474.446087</v>
       </c>
     </row>
-    <row r="248" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A248">
         <v>247</v>
       </c>
@@ -6354,7 +6349,7 @@
         <v>681566.07823099999</v>
       </c>
     </row>
-    <row r="249" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A249">
         <v>248</v>
       </c>
@@ -6374,7 +6369,7 @@
         <v>56988.650465600003</v>
       </c>
     </row>
-    <row r="250" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A250">
         <v>249</v>
       </c>
@@ -6394,7 +6389,7 @@
         <v>183853.366221</v>
       </c>
     </row>
-    <row r="251" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A251">
         <v>250</v>
       </c>
@@ -6414,7 +6409,7 @@
         <v>110472.297169</v>
       </c>
     </row>
-    <row r="252" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A252">
         <v>251</v>
       </c>
@@ -6434,7 +6429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A253">
         <v>252</v>
       </c>
@@ -6454,7 +6449,7 @@
         <v>45518.5428149</v>
       </c>
     </row>
-    <row r="254" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A254">
         <v>253</v>
       </c>
@@ -6474,7 +6469,7 @@
         <v>329936.38423899998</v>
       </c>
     </row>
-    <row r="255" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A255">
         <v>254</v>
       </c>
@@ -6494,7 +6489,7 @@
         <v>923.29951270000004</v>
       </c>
     </row>
-    <row r="256" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A256">
         <v>255</v>
       </c>
@@ -6514,7 +6509,7 @@
         <v>217.86947277100001</v>
       </c>
     </row>
-    <row r="257" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A257">
         <v>256</v>
       </c>
@@ -6534,7 +6529,7 @@
         <v>199.579876566</v>
       </c>
     </row>
-    <row r="258" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A258">
         <v>257</v>
       </c>
@@ -6554,7 +6549,7 @@
         <v>360.75832302100002</v>
       </c>
     </row>
-    <row r="259" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A259">
         <v>258</v>
       </c>
@@ -6574,7 +6569,7 @@
         <v>1.4477734974200001</v>
       </c>
     </row>
-    <row r="260" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A260">
         <v>259</v>
       </c>
@@ -6594,7 +6589,7 @@
         <v>2162.2426150900001</v>
       </c>
     </row>
-    <row r="261" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A261">
         <v>260</v>
       </c>
@@ -6614,7 +6609,7 @@
         <v>33621.354958700002</v>
       </c>
     </row>
-    <row r="262" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A262">
         <v>261</v>
       </c>
@@ -6634,7 +6629,7 @@
         <v>31094.894428399999</v>
       </c>
     </row>
-    <row r="263" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A263">
         <v>262</v>
       </c>
@@ -6654,7 +6649,7 @@
         <v>244275.37448900001</v>
       </c>
     </row>
-    <row r="264" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A264">
         <v>263</v>
       </c>
@@ -6674,7 +6669,7 @@
         <v>111530.813285</v>
       </c>
     </row>
-    <row r="265" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A265">
         <v>264</v>
       </c>
@@ -6694,7 +6689,7 @@
         <v>1548.89694833</v>
       </c>
     </row>
-    <row r="266" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A266">
         <v>265</v>
       </c>
@@ -6714,7 +6709,7 @@
         <v>43405.604220699999</v>
       </c>
     </row>
-    <row r="267" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A267">
         <v>266</v>
       </c>
@@ -6734,7 +6729,7 @@
         <v>28472.839329900002</v>
       </c>
     </row>
-    <row r="268" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A268">
         <v>267</v>
       </c>
@@ -6754,7 +6749,7 @@
         <v>17978.352152200001</v>
       </c>
     </row>
-    <row r="269" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A269">
         <v>268</v>
       </c>
@@ -6774,7 +6769,7 @@
         <v>347.536956868</v>
       </c>
     </row>
-    <row r="270" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A270">
         <v>269</v>
       </c>
@@ -6794,7 +6789,7 @@
         <v>4865.0720013500004</v>
       </c>
     </row>
-    <row r="271" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A271">
         <v>270</v>
       </c>
@@ -6814,7 +6809,7 @@
         <v>15150.872129400001</v>
       </c>
     </row>
-    <row r="272" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A272">
         <v>271</v>
       </c>
@@ -6834,7 +6829,7 @@
         <v>819347.27988699998</v>
       </c>
     </row>
-    <row r="273" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A273">
         <v>272</v>
       </c>
@@ -6854,7 +6849,7 @@
         <v>3954.7925484900002</v>
       </c>
     </row>
-    <row r="274" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A274">
         <v>273</v>
       </c>
@@ -6874,7 +6869,7 @@
         <v>90909.644041099993</v>
       </c>
     </row>
-    <row r="275" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A275">
         <v>274</v>
       </c>
@@ -6894,7 +6889,7 @@
         <v>108316.045574</v>
       </c>
     </row>
-    <row r="276" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A276">
         <v>275</v>
       </c>
@@ -6914,7 +6909,7 @@
         <v>91549.493246900005</v>
       </c>
     </row>
-    <row r="277" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A277">
         <v>276</v>
       </c>
@@ -6934,7 +6929,7 @@
         <v>52199.026779699998</v>
       </c>
     </row>
-    <row r="278" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A278">
         <v>277</v>
       </c>
@@ -6954,7 +6949,7 @@
         <v>84849.993800600001</v>
       </c>
     </row>
-    <row r="279" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A279">
         <v>278</v>
       </c>
@@ -6974,7 +6969,7 @@
         <v>1.0203434844099999</v>
       </c>
     </row>
-    <row r="280" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A280">
         <v>279</v>
       </c>
@@ -6994,7 +6989,7 @@
         <v>1553045.2407800001</v>
       </c>
     </row>
-    <row r="281" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A281">
         <v>280</v>
       </c>
@@ -7014,7 +7009,7 @@
         <v>171544.45413699999</v>
       </c>
     </row>
-    <row r="282" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A282">
         <v>281</v>
       </c>
@@ -7034,7 +7029,7 @@
         <v>22084.181850000001</v>
       </c>
     </row>
-    <row r="283" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A283">
         <v>282</v>
       </c>
@@ -7054,7 +7049,7 @@
         <v>149137.230465</v>
       </c>
     </row>
-    <row r="284" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A284">
         <v>283</v>
       </c>
@@ -7074,7 +7069,7 @@
         <v>264382.41012900003</v>
       </c>
     </row>
-    <row r="285" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A285">
         <v>284</v>
       </c>
@@ -7094,7 +7089,7 @@
         <v>945271.62862099998</v>
       </c>
     </row>
-    <row r="286" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A286">
         <v>285</v>
       </c>
@@ -7114,7 +7109,7 @@
         <v>19761.364289500001</v>
       </c>
     </row>
-    <row r="287" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A287">
         <v>286</v>
       </c>
@@ -7134,7 +7129,7 @@
         <v>11294.6946864</v>
       </c>
     </row>
-    <row r="288" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A288">
         <v>287</v>
       </c>
@@ -7154,7 +7149,7 @@
         <v>684868.89773299999</v>
       </c>
     </row>
-    <row r="289" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A289">
         <v>288</v>
       </c>
@@ -7174,7 +7169,7 @@
         <v>1350.2963608699999</v>
       </c>
     </row>
-    <row r="290" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A290">
         <v>289</v>
       </c>
@@ -7194,7 +7189,7 @@
         <v>9944.3983255700005</v>
       </c>
     </row>
-    <row r="291" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A291">
         <v>290</v>
       </c>
@@ -7214,7 +7209,7 @@
         <v>2627271.9995900001</v>
       </c>
     </row>
-    <row r="292" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A292">
         <v>291</v>
       </c>
@@ -7234,7 +7229,7 @@
         <v>600146.86254700006</v>
       </c>
     </row>
-    <row r="293" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A293">
         <v>292</v>
       </c>
@@ -7254,7 +7249,7 @@
         <v>3755231.1458299998</v>
       </c>
     </row>
-    <row r="294" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A294">
         <v>293</v>
       </c>
@@ -7274,7 +7269,7 @@
         <v>2315.2366802000001</v>
       </c>
     </row>
-    <row r="295" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A295">
         <v>294</v>
       </c>
@@ -7294,7 +7289,7 @@
         <v>842018.87065399997</v>
       </c>
     </row>
-    <row r="296" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A296">
         <v>295</v>
       </c>
@@ -7314,7 +7309,7 @@
         <v>12.8840746023</v>
       </c>
     </row>
-    <row r="297" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A297">
         <v>296</v>
       </c>
@@ -7334,7 +7329,7 @@
         <v>5448544.7690500002</v>
       </c>
     </row>
-    <row r="298" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A298">
         <v>297</v>
       </c>
@@ -7354,7 +7349,7 @@
         <v>915.50832301900004</v>
       </c>
     </row>
-    <row r="299" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A299">
         <v>298</v>
       </c>
@@ -7374,7 +7369,7 @@
         <v>42568.023094600001</v>
       </c>
     </row>
-    <row r="300" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A300">
         <v>299</v>
       </c>
@@ -7394,7 +7389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="301" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A301">
         <v>300</v>
       </c>
@@ -7414,7 +7409,7 @@
         <v>406819.11142500001</v>
       </c>
     </row>
-    <row r="302" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A302">
         <v>301</v>
       </c>
@@ -7434,7 +7429,7 @@
         <v>3616284.2563700001</v>
       </c>
     </row>
-    <row r="303" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A303">
         <v>302</v>
       </c>
@@ -7454,7 +7449,7 @@
         <v>67.256269148800001</v>
       </c>
     </row>
-    <row r="304" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A304">
         <v>303</v>
       </c>
@@ -7474,7 +7469,7 @@
         <v>14.532480359999999</v>
       </c>
     </row>
-    <row r="305" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A305">
         <v>304</v>
       </c>
@@ -7494,7 +7489,7 @@
         <v>8.8891211860600006</v>
       </c>
     </row>
-    <row r="306" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A306">
         <v>305</v>
       </c>
@@ -7514,7 +7509,7 @@
         <v>72657.227798199994</v>
       </c>
     </row>
-    <row r="307" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A307">
         <v>306</v>
       </c>
@@ -7534,7 +7529,7 @@
         <v>633.96380939400001</v>
       </c>
     </row>
-    <row r="308" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A308">
         <v>307</v>
       </c>
@@ -7554,7 +7549,7 @@
         <v>559.91962968200005</v>
       </c>
     </row>
-    <row r="309" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A309">
         <v>308</v>
       </c>
@@ -7574,7 +7569,7 @@
         <v>17489.923567400001</v>
       </c>
     </row>
-    <row r="310" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A310">
         <v>309</v>
       </c>
@@ -7594,7 +7589,7 @@
         <v>206125.88093099999</v>
       </c>
     </row>
-    <row r="311" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A311">
         <v>310</v>
       </c>
@@ -7614,7 +7609,7 @@
         <v>615557.80805500003</v>
       </c>
     </row>
-    <row r="312" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A312">
         <v>311</v>
       </c>
@@ -7634,7 +7629,7 @@
         <v>3941980.16867</v>
       </c>
     </row>
-    <row r="313" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A313">
         <v>312</v>
       </c>
@@ -7654,7 +7649,7 @@
         <v>2686608.4257299998</v>
       </c>
     </row>
-    <row r="314" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A314">
         <v>313</v>
       </c>
@@ -7674,7 +7669,7 @@
         <v>9945.5142082900002</v>
       </c>
     </row>
-    <row r="315" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A315">
         <v>314</v>
       </c>
@@ -7694,7 +7689,7 @@
         <v>34.970400695899997</v>
       </c>
     </row>
-    <row r="316" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A316">
         <v>315</v>
       </c>
@@ -7714,7 +7709,7 @@
         <v>6591.98663803</v>
       </c>
     </row>
-    <row r="317" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A317">
         <v>316</v>
       </c>
@@ -7734,7 +7729,7 @@
         <v>1234264.69126</v>
       </c>
     </row>
-    <row r="318" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A318">
         <v>317</v>
       </c>
@@ -7754,7 +7749,7 @@
         <v>18089.645001000001</v>
       </c>
     </row>
-    <row r="319" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A319">
         <v>318</v>
       </c>
@@ -7774,7 +7769,7 @@
         <v>530501.10320600006</v>
       </c>
     </row>
-    <row r="320" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A320">
         <v>319</v>
       </c>
@@ -7794,7 +7789,7 @@
         <v>160547.72523700001</v>
       </c>
     </row>
-    <row r="321" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A321">
         <v>320</v>
       </c>
@@ -7814,7 +7809,7 @@
         <v>13675.2004887</v>
       </c>
     </row>
-    <row r="322" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A322">
         <v>321</v>
       </c>
@@ -7834,7 +7829,7 @@
         <v>14738.503777800001</v>
       </c>
     </row>
-    <row r="323" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A323">
         <v>322</v>
       </c>
@@ -7854,7 +7849,7 @@
         <v>2841.6746070099998</v>
       </c>
     </row>
-    <row r="324" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A324">
         <v>323</v>
       </c>
@@ -7874,7 +7869,7 @@
         <v>158973.205078</v>
       </c>
     </row>
-    <row r="325" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A325">
         <v>324</v>
       </c>
@@ -7894,7 +7889,7 @@
         <v>946.83471357999997</v>
       </c>
     </row>
-    <row r="326" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A326">
         <v>325</v>
       </c>
@@ -7914,7 +7909,7 @@
         <v>102654.154736</v>
       </c>
     </row>
-    <row r="327" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A327">
         <v>326</v>
       </c>
@@ -7934,7 +7929,7 @@
         <v>14213.6971734</v>
       </c>
     </row>
-    <row r="328" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A328">
         <v>327</v>
       </c>
@@ -7954,7 +7949,7 @@
         <v>79.331795557899994</v>
       </c>
     </row>
-    <row r="329" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A329">
         <v>328</v>
       </c>
@@ -7974,7 +7969,7 @@
         <v>27067.892871299999</v>
       </c>
     </row>
-    <row r="330" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A330">
         <v>329</v>
       </c>
@@ -7994,7 +7989,7 @@
         <v>465504.48641399998</v>
       </c>
     </row>
-    <row r="331" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A331">
         <v>330</v>
       </c>
@@ -8014,7 +8009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="332" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A332">
         <v>331</v>
       </c>
@@ -8034,7 +8029,7 @@
         <v>1705086.4479700001</v>
       </c>
     </row>
-    <row r="333" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A333">
         <v>332</v>
       </c>
@@ -8054,7 +8049,7 @@
         <v>3132.8290120500001</v>
       </c>
     </row>
-    <row r="334" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A334">
         <v>333</v>
       </c>
@@ -8074,7 +8069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="335" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A335">
         <v>334</v>
       </c>
@@ -8096,5 +8091,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>